--- a/assets/AVAX.xlsx
+++ b/assets/AVAX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckara\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckara\Desktop\MockChebyshev\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB06C42D-0A5F-4A7F-A69C-EFD3311C09F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCCF3CD-4F39-410A-AE25-4A3FE31E52CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5896576-D682-452C-BE8B-0EB4AF556ADC}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -157,12 +157,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -184,6 +200,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DAF6EC7-1842-4C46-890D-F7DE3C1E2DF0}" name="Tablo2" displayName="Tablo2" ref="A1:F88" totalsRowShown="0" dataDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:F88" xr:uid="{7DAF6EC7-1842-4C46-890D-F7DE3C1E2DF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DAF6EC7-1842-4C46-890D-F7DE3C1E2DF0}" name="Tablo2" displayName="Tablo2" ref="D1:I86" totalsRowShown="0" dataDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="D1:I86" xr:uid="{7DAF6EC7-1842-4C46-890D-F7DE3C1E2DF0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{52454A46-EDA9-4EDD-81DF-64FA52A49EBC}" name="Day" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{D7EDF8AF-A2A4-4F71-8B44-4C7A0E0C7DA4}" name="Average Closing" dataDxfId="4"/>
@@ -637,1780 +654,1750 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBE48A2-BACF-4BDF-8657-DC3F9E631CE6}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="B1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="2:10" ht="15" thickBot="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="11">
         <v>44336</v>
       </c>
-      <c r="B2" s="1">
+      <c r="E2" s="2">
         <v>25.06</v>
       </c>
-      <c r="C2" s="2">
+      <c r="F2" s="3">
         <v>23.52</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="3">
         <v>27.73</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H2" s="3">
         <v>22.86</v>
       </c>
-      <c r="F2" s="10">
+      <c r="I2" s="12">
         <v>8.1900000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="11">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1">
+      <c r="D3" s="13">
         <v>44335</v>
       </c>
-      <c r="B3" s="3">
+      <c r="E3" s="4">
         <v>23.16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="F3" s="5">
         <v>37.159999999999997</v>
       </c>
-      <c r="D3" s="4">
+      <c r="G3" s="5">
         <v>37.159999999999997</v>
       </c>
-      <c r="E3" s="4">
+      <c r="H3" s="5">
         <v>22.23</v>
       </c>
-      <c r="F3" s="12">
+      <c r="I3" s="14">
         <v>-0.372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="A4" s="11">
+    <row r="4" spans="2:10" ht="15" thickBot="1">
+      <c r="D4" s="13">
         <v>44334</v>
       </c>
-      <c r="B4" s="5">
+      <c r="E4" s="6">
         <v>36.880000000000003</v>
       </c>
-      <c r="C4" s="4">
+      <c r="F4" s="5">
         <v>33.869999999999997</v>
       </c>
-      <c r="D4" s="4">
+      <c r="G4" s="5">
         <v>37.19</v>
       </c>
-      <c r="E4" s="4">
+      <c r="H4" s="5">
         <v>33.869999999999997</v>
       </c>
-      <c r="F4" s="13">
+      <c r="I4" s="15">
         <v>9.5299999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1">
-      <c r="A5" s="11">
+    <row r="5" spans="2:10" ht="15" thickBot="1">
+      <c r="D5" s="13">
         <v>44333</v>
       </c>
-      <c r="B5" s="3">
+      <c r="E5" s="4">
         <v>33.67</v>
       </c>
-      <c r="C5" s="4">
+      <c r="F5" s="5">
         <v>36.67</v>
       </c>
-      <c r="D5" s="4">
+      <c r="G5" s="5">
         <v>36.67</v>
       </c>
-      <c r="E5" s="4">
+      <c r="H5" s="5">
         <v>32.880000000000003</v>
       </c>
-      <c r="F5" s="12">
+      <c r="I5" s="14">
         <v>-0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1">
-      <c r="A6" s="11">
+    <row r="6" spans="2:10" ht="15" thickBot="1">
+      <c r="D6" s="13">
         <v>44332</v>
       </c>
-      <c r="B6" s="5">
+      <c r="E6" s="6">
         <v>36.6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="F6" s="5">
         <v>34.54</v>
       </c>
-      <c r="D6" s="4">
+      <c r="G6" s="5">
         <v>38.33</v>
       </c>
-      <c r="E6" s="4">
+      <c r="H6" s="5">
         <v>33.47</v>
       </c>
-      <c r="F6" s="13">
+      <c r="I6" s="15">
         <v>6.1699999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1">
-      <c r="A7" s="11">
+    <row r="7" spans="2:10" ht="15" thickBot="1">
+      <c r="D7" s="13">
         <v>44331</v>
-      </c>
-      <c r="B7" s="3">
-        <v>34.47</v>
-      </c>
-      <c r="C7" s="4">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="D7" s="4">
-        <v>39.799999999999997</v>
       </c>
       <c r="E7" s="4">
         <v>34.47</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="5">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="G7" s="5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H7" s="5">
+        <v>34.47</v>
+      </c>
+      <c r="I7" s="14">
         <v>-6.6500000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1">
-      <c r="A8" s="11">
+    <row r="8" spans="2:10" ht="15" thickBot="1">
+      <c r="D8" s="13">
         <v>44330</v>
       </c>
-      <c r="B8" s="5">
+      <c r="E8" s="6">
         <v>36.93</v>
       </c>
-      <c r="C8" s="4">
+      <c r="F8" s="5">
         <v>35.07</v>
       </c>
-      <c r="D8" s="4">
+      <c r="G8" s="5">
         <v>36.93</v>
       </c>
-      <c r="E8" s="4">
+      <c r="H8" s="5">
         <v>34.08</v>
       </c>
-      <c r="F8" s="13">
+      <c r="I8" s="15">
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1">
-      <c r="A9" s="11">
+    <row r="9" spans="2:10" ht="15" thickBot="1">
+      <c r="D9" s="13">
         <v>44329</v>
       </c>
-      <c r="B9" s="5">
+      <c r="E9" s="6">
         <v>35</v>
       </c>
-      <c r="C9" s="4">
+      <c r="F9" s="5">
         <v>32.76</v>
       </c>
-      <c r="D9" s="4">
+      <c r="G9" s="5">
         <v>36.450000000000003</v>
       </c>
-      <c r="E9" s="4">
+      <c r="H9" s="5">
         <v>32.21</v>
       </c>
-      <c r="F9" s="13">
+      <c r="I9" s="15">
         <v>8.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1">
-      <c r="A10" s="11">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="2:10" ht="15" thickBot="1">
+      <c r="D10" s="13">
         <v>44328</v>
-      </c>
-      <c r="B10" s="3">
-        <v>32.159999999999997</v>
-      </c>
-      <c r="C10" s="4">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="D10" s="4">
-        <v>41.29</v>
       </c>
       <c r="E10" s="4">
         <v>32.159999999999997</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G10" s="5">
+        <v>41.29</v>
+      </c>
+      <c r="H10" s="5">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="I10" s="14">
         <v>-0.12540000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1">
-      <c r="A11" s="11">
+    <row r="11" spans="2:10" ht="15" thickBot="1">
+      <c r="D11" s="13">
         <v>44327</v>
       </c>
-      <c r="B11" s="5">
+      <c r="E11" s="6">
         <v>36.770000000000003</v>
       </c>
-      <c r="C11" s="4">
+      <c r="F11" s="5">
         <v>34.53</v>
       </c>
-      <c r="D11" s="4">
+      <c r="G11" s="5">
         <v>36.770000000000003</v>
       </c>
-      <c r="E11" s="4">
+      <c r="H11" s="5">
         <v>33.130000000000003</v>
       </c>
-      <c r="F11" s="13">
+      <c r="I11" s="15">
         <v>5.8500000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
-      <c r="A12" s="11">
+    <row r="12" spans="2:10" ht="15" thickBot="1">
+      <c r="D12" s="13">
         <v>44326</v>
       </c>
-      <c r="B12" s="3">
+      <c r="E12" s="4">
         <v>34.74</v>
       </c>
-      <c r="C12" s="4">
+      <c r="F12" s="5">
         <v>39</v>
       </c>
-      <c r="D12" s="4">
+      <c r="G12" s="5">
         <v>41.11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="H12" s="5">
         <v>33.64</v>
       </c>
-      <c r="F12" s="12">
+      <c r="I12" s="14">
         <v>-0.1071</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="11">
+    <row r="13" spans="2:10" ht="15" thickBot="1">
+      <c r="D13" s="13">
         <v>44325</v>
       </c>
-      <c r="B13" s="5">
+      <c r="E13" s="6">
         <v>38.909999999999997</v>
       </c>
-      <c r="C13" s="4">
+      <c r="F13" s="5">
         <v>38.4</v>
       </c>
-      <c r="D13" s="4">
+      <c r="G13" s="5">
         <v>38.909999999999997</v>
       </c>
-      <c r="E13" s="4">
+      <c r="H13" s="5">
         <v>36.06</v>
       </c>
-      <c r="F13" s="13">
+      <c r="I13" s="15">
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1">
-      <c r="A14" s="11">
+    <row r="14" spans="2:10" ht="15" thickBot="1">
+      <c r="D14" s="13">
         <v>44324</v>
       </c>
-      <c r="B14" s="5">
+      <c r="E14" s="6">
         <v>38.299999999999997</v>
       </c>
-      <c r="C14" s="4">
+      <c r="F14" s="5">
         <v>37.92</v>
       </c>
-      <c r="D14" s="4">
+      <c r="G14" s="5">
         <v>39.08</v>
       </c>
-      <c r="E14" s="4">
+      <c r="H14" s="5">
         <v>37.729999999999997</v>
       </c>
-      <c r="F14" s="13">
+      <c r="I14" s="15">
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
-      <c r="A15" s="11">
+    <row r="15" spans="2:10" ht="15" thickBot="1">
+      <c r="D15" s="13">
         <v>44323</v>
       </c>
-      <c r="B15" s="3">
+      <c r="E15" s="4">
         <v>37.89</v>
       </c>
-      <c r="C15" s="4">
+      <c r="F15" s="5">
         <v>37.979999999999997</v>
       </c>
-      <c r="D15" s="4">
+      <c r="G15" s="5">
         <v>42.01</v>
       </c>
-      <c r="E15" s="4">
+      <c r="H15" s="5">
         <v>37.24</v>
       </c>
-      <c r="F15" s="12">
+      <c r="I15" s="14">
         <v>-2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
-      <c r="A16" s="11">
+    <row r="16" spans="2:10" ht="15" thickBot="1">
+      <c r="D16" s="13">
         <v>44322</v>
       </c>
-      <c r="B16" s="5">
+      <c r="E16" s="6">
         <v>37.979999999999997</v>
       </c>
-      <c r="C16" s="4">
+      <c r="F16" s="5">
         <v>35.29</v>
       </c>
-      <c r="D16" s="4">
+      <c r="G16" s="5">
         <v>38.22</v>
       </c>
-      <c r="E16" s="4">
+      <c r="H16" s="5">
         <v>35.29</v>
       </c>
-      <c r="F16" s="13">
+      <c r="I16" s="15">
         <v>7.7100000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1">
-      <c r="A17" s="11">
+    <row r="17" spans="4:9" ht="15" thickBot="1">
+      <c r="D17" s="13">
         <v>44321</v>
       </c>
-      <c r="B17" s="5">
+      <c r="E17" s="6">
         <v>35.26</v>
       </c>
-      <c r="C17" s="4">
+      <c r="F17" s="5">
         <v>30.9</v>
       </c>
-      <c r="D17" s="4">
+      <c r="G17" s="5">
         <v>35.26</v>
       </c>
-      <c r="E17" s="4">
+      <c r="H17" s="5">
         <v>30.9</v>
       </c>
-      <c r="F17" s="13">
+      <c r="I17" s="15">
         <v>0.1047</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1">
-      <c r="A18" s="11">
+    <row r="18" spans="4:9" ht="15" thickBot="1">
+      <c r="D18" s="13">
         <v>44320</v>
       </c>
-      <c r="B18" s="3">
+      <c r="E18" s="4">
         <v>31.92</v>
       </c>
-      <c r="C18" s="4">
+      <c r="F18" s="5">
         <v>36.06</v>
       </c>
-      <c r="D18" s="4">
+      <c r="G18" s="5">
         <v>36.06</v>
       </c>
-      <c r="E18" s="4">
+      <c r="H18" s="5">
         <v>31.3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="I18" s="14">
         <v>-0.1105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1">
-      <c r="A19" s="11">
+    <row r="19" spans="4:9" ht="15" thickBot="1">
+      <c r="D19" s="13">
         <v>44319</v>
       </c>
-      <c r="B19" s="5">
+      <c r="E19" s="6">
         <v>35.880000000000003</v>
       </c>
-      <c r="C19" s="4">
+      <c r="F19" s="5">
         <v>31.25</v>
       </c>
-      <c r="D19" s="4">
+      <c r="G19" s="5">
         <v>36</v>
       </c>
-      <c r="E19" s="4">
+      <c r="H19" s="5">
         <v>31.25</v>
       </c>
-      <c r="F19" s="13">
+      <c r="I19" s="15">
         <v>0.14729999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1">
-      <c r="A20" s="11">
+    <row r="20" spans="4:9" ht="15" thickBot="1">
+      <c r="D20" s="13">
         <v>44318</v>
       </c>
-      <c r="B20" s="3">
+      <c r="E20" s="4">
         <v>31.28</v>
       </c>
-      <c r="C20" s="4">
+      <c r="F20" s="5">
         <v>31.92</v>
       </c>
-      <c r="D20" s="4">
+      <c r="G20" s="5">
         <v>32.49</v>
       </c>
-      <c r="E20" s="4">
+      <c r="H20" s="5">
         <v>30.95</v>
       </c>
-      <c r="F20" s="12">
+      <c r="I20" s="14">
         <v>-1.67E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1">
-      <c r="A21" s="11">
+    <row r="21" spans="4:9" ht="15" thickBot="1">
+      <c r="D21" s="13">
         <v>44317</v>
-      </c>
-      <c r="B21" s="3">
-        <v>31.81</v>
-      </c>
-      <c r="C21" s="4">
-        <v>32.68</v>
-      </c>
-      <c r="D21" s="4">
-        <v>35.19</v>
       </c>
       <c r="E21" s="4">
         <v>31.81</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="5">
+        <v>32.68</v>
+      </c>
+      <c r="G21" s="5">
+        <v>35.19</v>
+      </c>
+      <c r="H21" s="5">
+        <v>31.81</v>
+      </c>
+      <c r="I21" s="14">
         <v>-3.3099999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
-      <c r="A22" s="11">
+    <row r="22" spans="4:9" ht="15" thickBot="1">
+      <c r="D22" s="13">
         <v>44316</v>
       </c>
-      <c r="B22" s="5">
+      <c r="E22" s="6">
         <v>32.9</v>
       </c>
-      <c r="C22" s="4">
+      <c r="F22" s="5">
         <v>27.94</v>
       </c>
-      <c r="D22" s="4">
+      <c r="G22" s="5">
         <v>32.9</v>
       </c>
-      <c r="E22" s="4">
+      <c r="H22" s="5">
         <v>27.92</v>
       </c>
-      <c r="F22" s="13">
+      <c r="I22" s="15">
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1">
-      <c r="A23" s="11">
+    <row r="23" spans="4:9" ht="15" thickBot="1">
+      <c r="D23" s="13">
         <v>44315</v>
       </c>
-      <c r="B23" s="3">
+      <c r="E23" s="4">
         <v>27.93</v>
       </c>
-      <c r="C23" s="4">
+      <c r="F23" s="5">
         <v>28.23</v>
       </c>
-      <c r="D23" s="4">
+      <c r="G23" s="5">
         <v>28.57</v>
       </c>
-      <c r="E23" s="4">
+      <c r="H23" s="5">
         <v>27.17</v>
       </c>
-      <c r="F23" s="12">
+      <c r="I23" s="14">
         <v>-1.29E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1">
-      <c r="A24" s="11">
+    <row r="24" spans="4:9" ht="15" thickBot="1">
+      <c r="D24" s="13">
         <v>44314</v>
       </c>
-      <c r="B24" s="5">
+      <c r="E24" s="6">
         <v>28.29</v>
       </c>
-      <c r="C24" s="4">
+      <c r="F24" s="5">
         <v>27.91</v>
       </c>
-      <c r="D24" s="4">
+      <c r="G24" s="5">
         <v>28.56</v>
       </c>
-      <c r="E24" s="4">
+      <c r="H24" s="5">
         <v>26.44</v>
       </c>
-      <c r="F24" s="13">
+      <c r="I24" s="15">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1">
-      <c r="A25" s="11">
+    <row r="25" spans="4:9" ht="15" thickBot="1">
+      <c r="D25" s="13">
         <v>44313</v>
       </c>
-      <c r="B25" s="5">
+      <c r="E25" s="6">
         <v>27.9</v>
       </c>
-      <c r="C25" s="4">
+      <c r="F25" s="5">
         <v>26.35</v>
       </c>
-      <c r="D25" s="4">
+      <c r="G25" s="5">
         <v>27.9</v>
       </c>
-      <c r="E25" s="4">
+      <c r="H25" s="5">
         <v>26.35</v>
       </c>
-      <c r="F25" s="13">
+      <c r="I25" s="15">
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1">
-      <c r="A26" s="11">
+    <row r="26" spans="4:9" ht="15" thickBot="1">
+      <c r="D26" s="13">
         <v>44312</v>
       </c>
-      <c r="B26" s="5">
+      <c r="E26" s="6">
         <v>26.45</v>
       </c>
-      <c r="C26" s="4">
+      <c r="F26" s="5">
         <v>21.62</v>
       </c>
-      <c r="D26" s="4">
+      <c r="G26" s="5">
         <v>26.45</v>
       </c>
-      <c r="E26" s="4">
+      <c r="H26" s="5">
         <v>21.62</v>
       </c>
-      <c r="F26" s="13">
+      <c r="I26" s="15">
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="11">
+    <row r="27" spans="4:9" ht="15" thickBot="1">
+      <c r="D27" s="13">
         <v>44311</v>
       </c>
-      <c r="B27" s="3">
+      <c r="E27" s="4">
         <v>21.54</v>
       </c>
-      <c r="C27" s="4">
+      <c r="F27" s="5">
         <v>21.89</v>
       </c>
-      <c r="D27" s="4">
+      <c r="G27" s="5">
         <v>23.3</v>
       </c>
-      <c r="E27" s="4">
+      <c r="H27" s="5">
         <v>20.94</v>
       </c>
-      <c r="F27" s="12">
+      <c r="I27" s="14">
         <v>-1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1">
-      <c r="A28" s="11">
+    <row r="28" spans="4:9" ht="15" thickBot="1">
+      <c r="D28" s="13">
         <v>44310</v>
       </c>
-      <c r="B28" s="3">
+      <c r="E28" s="4">
         <v>21.83</v>
       </c>
-      <c r="C28" s="4">
+      <c r="F28" s="5">
         <v>23.57</v>
       </c>
-      <c r="D28" s="4">
+      <c r="G28" s="5">
         <v>23.75</v>
       </c>
-      <c r="E28" s="4">
+      <c r="H28" s="5">
         <v>21.8</v>
       </c>
-      <c r="F28" s="12">
+      <c r="I28" s="14">
         <v>-7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1">
-      <c r="A29" s="11">
+    <row r="29" spans="4:9" ht="15" thickBot="1">
+      <c r="D29" s="13">
         <v>44309</v>
       </c>
-      <c r="B29" s="3">
+      <c r="E29" s="4">
         <v>23.57</v>
       </c>
-      <c r="C29" s="4">
+      <c r="F29" s="5">
         <v>23.9</v>
       </c>
-      <c r="D29" s="4">
+      <c r="G29" s="5">
         <v>23.9</v>
       </c>
-      <c r="E29" s="4">
+      <c r="H29" s="5">
         <v>20.84</v>
       </c>
-      <c r="F29" s="12">
+      <c r="I29" s="14">
         <v>-1.77E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1">
-      <c r="A30" s="11">
+    <row r="30" spans="4:9" ht="15" thickBot="1">
+      <c r="D30" s="13">
         <v>44308</v>
-      </c>
-      <c r="B30" s="3">
-        <v>24</v>
-      </c>
-      <c r="C30" s="4">
-        <v>25.81</v>
-      </c>
-      <c r="D30" s="4">
-        <v>27.22</v>
       </c>
       <c r="E30" s="4">
         <v>24</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="5">
+        <v>25.81</v>
+      </c>
+      <c r="G30" s="5">
+        <v>27.22</v>
+      </c>
+      <c r="H30" s="5">
+        <v>24</v>
+      </c>
+      <c r="I30" s="14">
         <v>-7.1599999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1">
-      <c r="A31" s="11">
+    <row r="31" spans="4:9" ht="15" thickBot="1">
+      <c r="D31" s="13">
         <v>44307</v>
-      </c>
-      <c r="B31" s="3">
-        <v>25.85</v>
-      </c>
-      <c r="C31" s="4">
-        <v>27.45</v>
-      </c>
-      <c r="D31" s="4">
-        <v>27.89</v>
       </c>
       <c r="E31" s="4">
         <v>25.85</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="5">
+        <v>27.45</v>
+      </c>
+      <c r="G31" s="5">
+        <v>27.89</v>
+      </c>
+      <c r="H31" s="5">
+        <v>25.85</v>
+      </c>
+      <c r="I31" s="14">
         <v>-5.8400000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1">
-      <c r="A32" s="11">
+    <row r="32" spans="4:9" ht="15" thickBot="1">
+      <c r="D32" s="13">
         <v>44306</v>
       </c>
-      <c r="B32" s="5">
+      <c r="E32" s="6">
         <v>27.45</v>
       </c>
-      <c r="C32" s="4">
+      <c r="F32" s="5">
         <v>26.3</v>
       </c>
-      <c r="D32" s="4">
+      <c r="G32" s="5">
         <v>28.19</v>
       </c>
-      <c r="E32" s="4">
+      <c r="H32" s="5">
         <v>24.84</v>
       </c>
-      <c r="F32" s="13">
+      <c r="I32" s="15">
         <v>4.8300000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1">
-      <c r="A33" s="11">
+    <row r="33" spans="4:9" ht="15" thickBot="1">
+      <c r="D33" s="13">
         <v>44305</v>
       </c>
-      <c r="B33" s="3">
+      <c r="E33" s="4">
         <v>26.18</v>
       </c>
-      <c r="C33" s="4">
+      <c r="F33" s="5">
         <v>29.33</v>
       </c>
-      <c r="D33" s="4">
+      <c r="G33" s="5">
         <v>29.86</v>
       </c>
-      <c r="E33" s="4">
+      <c r="H33" s="5">
         <v>25.89</v>
       </c>
-      <c r="F33" s="12">
+      <c r="I33" s="14">
         <v>-0.1056</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1">
-      <c r="A34" s="11">
+    <row r="34" spans="4:9" ht="15" thickBot="1">
+      <c r="D34" s="13">
         <v>44304</v>
       </c>
-      <c r="B34" s="3">
+      <c r="E34" s="4">
         <v>29.27</v>
       </c>
-      <c r="C34" s="4">
+      <c r="F34" s="5">
         <v>33.96</v>
       </c>
-      <c r="D34" s="4">
+      <c r="G34" s="5">
         <v>33.96</v>
       </c>
-      <c r="E34" s="4">
+      <c r="H34" s="5">
         <v>23.34</v>
       </c>
-      <c r="F34" s="12">
+      <c r="I34" s="14">
         <v>-0.1386</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1">
-      <c r="A35" s="11">
+    <row r="35" spans="4:9" ht="15" thickBot="1">
+      <c r="D35" s="13">
         <v>44303</v>
-      </c>
-      <c r="B35" s="3">
-        <v>33.99</v>
-      </c>
-      <c r="C35" s="4">
-        <v>35.56</v>
-      </c>
-      <c r="D35" s="4">
-        <v>36.549999999999997</v>
       </c>
       <c r="E35" s="4">
         <v>33.99</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="5">
+        <v>35.56</v>
+      </c>
+      <c r="G35" s="5">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="H35" s="5">
+        <v>33.99</v>
+      </c>
+      <c r="I35" s="14">
         <v>-4.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1">
-      <c r="A36" s="11">
+    <row r="36" spans="4:9" ht="15" thickBot="1">
+      <c r="D36" s="13">
         <v>44302</v>
       </c>
-      <c r="B36" s="3">
+      <c r="E36" s="4">
         <v>35.46</v>
       </c>
-      <c r="C36" s="4">
+      <c r="F36" s="5">
         <v>37.130000000000003</v>
       </c>
-      <c r="D36" s="4">
+      <c r="G36" s="5">
         <v>37.130000000000003</v>
       </c>
-      <c r="E36" s="4">
+      <c r="H36" s="5">
         <v>34.79</v>
       </c>
-      <c r="F36" s="12">
+      <c r="I36" s="14">
         <v>-4.1300000000000003E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1">
-      <c r="A37" s="11">
+    <row r="37" spans="4:9" ht="15" thickBot="1">
+      <c r="D37" s="13">
         <v>44301</v>
       </c>
-      <c r="B37" s="3">
+      <c r="E37" s="4">
         <v>36.99</v>
       </c>
-      <c r="C37" s="4">
+      <c r="F37" s="5">
         <v>38.700000000000003</v>
       </c>
-      <c r="D37" s="4">
+      <c r="G37" s="5">
         <v>39.67</v>
       </c>
-      <c r="E37" s="4">
+      <c r="H37" s="5">
         <v>36.65</v>
       </c>
-      <c r="F37" s="12">
+      <c r="I37" s="14">
         <v>-3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1">
-      <c r="A38" s="11">
+    <row r="38" spans="4:9" ht="15" thickBot="1">
+      <c r="D38" s="13">
         <v>44300</v>
       </c>
-      <c r="B38" s="5">
+      <c r="E38" s="6">
         <v>38.43</v>
       </c>
-      <c r="C38" s="4">
+      <c r="F38" s="5">
         <v>33.69</v>
       </c>
-      <c r="D38" s="4">
+      <c r="G38" s="5">
         <v>38.85</v>
       </c>
-      <c r="E38" s="4">
+      <c r="H38" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="F38" s="13">
+      <c r="I38" s="15">
         <v>0.14169999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1">
-      <c r="A39" s="11">
+    <row r="39" spans="4:9" ht="15" thickBot="1">
+      <c r="D39" s="13">
         <v>44299</v>
       </c>
-      <c r="B39" s="3">
+      <c r="E39" s="4">
         <v>33.659999999999997</v>
       </c>
-      <c r="C39" s="4">
+      <c r="F39" s="5">
         <v>34.020000000000003</v>
       </c>
-      <c r="D39" s="4">
+      <c r="G39" s="5">
         <v>34.520000000000003</v>
       </c>
-      <c r="E39" s="4">
+      <c r="H39" s="5">
         <v>32.26</v>
       </c>
-      <c r="F39" s="12">
+      <c r="I39" s="14">
         <v>-4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1">
-      <c r="A40" s="11">
+    <row r="40" spans="4:9" ht="15" thickBot="1">
+      <c r="D40" s="13">
         <v>44298</v>
       </c>
-      <c r="B40" s="5">
+      <c r="E40" s="6">
         <v>33.82</v>
       </c>
-      <c r="C40" s="4">
+      <c r="F40" s="5">
         <v>31.64</v>
       </c>
-      <c r="D40" s="4">
+      <c r="G40" s="5">
         <v>34.26</v>
       </c>
-      <c r="E40" s="4">
+      <c r="H40" s="5">
         <v>31.6</v>
       </c>
-      <c r="F40" s="13">
+      <c r="I40" s="15">
         <v>6.9500000000000006E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1">
-      <c r="A41" s="11">
+    <row r="41" spans="4:9" ht="15" thickBot="1">
+      <c r="D41" s="13">
         <v>44297</v>
       </c>
-      <c r="B41" s="3">
+      <c r="E41" s="4">
         <v>31.62</v>
       </c>
-      <c r="C41" s="4">
+      <c r="F41" s="5">
         <v>31.93</v>
       </c>
-      <c r="D41" s="4">
+      <c r="G41" s="5">
         <v>32.03</v>
       </c>
-      <c r="E41" s="4">
+      <c r="H41" s="5">
         <v>31.14</v>
       </c>
-      <c r="F41" s="12">
+      <c r="I41" s="14">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1">
-      <c r="A42" s="11">
+    <row r="42" spans="4:9" ht="15" thickBot="1">
+      <c r="D42" s="13">
         <v>44296</v>
       </c>
-      <c r="B42" s="5">
+      <c r="E42" s="6">
         <v>31.78</v>
       </c>
-      <c r="C42" s="4">
+      <c r="F42" s="5">
         <v>31.52</v>
       </c>
-      <c r="D42" s="4">
+      <c r="G42" s="5">
         <v>33.53</v>
       </c>
-      <c r="E42" s="4">
+      <c r="H42" s="5">
         <v>31.35</v>
       </c>
-      <c r="F42" s="13">
+      <c r="I42" s="15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
-      <c r="A43" s="11">
+    <row r="43" spans="4:9" ht="15" thickBot="1">
+      <c r="D43" s="13">
         <v>44295</v>
       </c>
-      <c r="B43" s="5">
+      <c r="E43" s="6">
         <v>31.46</v>
       </c>
-      <c r="C43" s="4">
+      <c r="F43" s="5">
         <v>30.79</v>
       </c>
-      <c r="D43" s="4">
+      <c r="G43" s="5">
         <v>31.79</v>
       </c>
-      <c r="E43" s="4">
+      <c r="H43" s="5">
         <v>30.38</v>
       </c>
-      <c r="F43" s="13">
+      <c r="I43" s="15">
         <v>2.3099999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1">
-      <c r="A44" s="11">
+    <row r="44" spans="4:9" ht="15" thickBot="1">
+      <c r="D44" s="13">
         <v>44294</v>
       </c>
-      <c r="B44" s="5">
+      <c r="E44" s="6">
         <v>30.75</v>
       </c>
-      <c r="C44" s="4">
+      <c r="F44" s="5">
         <v>29.7</v>
       </c>
-      <c r="D44" s="4">
+      <c r="G44" s="5">
         <v>31.2</v>
       </c>
-      <c r="E44" s="4">
+      <c r="H44" s="5">
         <v>29.7</v>
       </c>
-      <c r="F44" s="13">
+      <c r="I44" s="15">
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1">
-      <c r="A45" s="11">
+    <row r="45" spans="4:9" ht="15" thickBot="1">
+      <c r="D45" s="13">
         <v>44293</v>
       </c>
-      <c r="B45" s="3">
+      <c r="E45" s="4">
         <v>29.5</v>
       </c>
-      <c r="C45" s="4">
+      <c r="F45" s="5">
         <v>31.61</v>
       </c>
-      <c r="D45" s="4">
+      <c r="G45" s="5">
         <v>31.68</v>
       </c>
-      <c r="E45" s="4">
+      <c r="H45" s="5">
         <v>28.87</v>
       </c>
-      <c r="F45" s="12">
+      <c r="I45" s="14">
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1">
-      <c r="A46" s="11">
+    <row r="46" spans="4:9" ht="15" thickBot="1">
+      <c r="D46" s="13">
         <v>44292</v>
       </c>
-      <c r="B46" s="5">
+      <c r="E46" s="6">
         <v>31.46</v>
       </c>
-      <c r="C46" s="4">
+      <c r="F46" s="5">
         <v>31.26</v>
       </c>
-      <c r="D46" s="4">
+      <c r="G46" s="5">
         <v>33.92</v>
       </c>
-      <c r="E46" s="4">
+      <c r="H46" s="5">
         <v>30.96</v>
       </c>
-      <c r="F46" s="13">
+      <c r="I46" s="15">
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1">
-      <c r="A47" s="11">
+    <row r="47" spans="4:9" ht="15" thickBot="1">
+      <c r="D47" s="13">
         <v>44291</v>
       </c>
-      <c r="B47" s="5">
+      <c r="E47" s="6">
         <v>31.27</v>
       </c>
-      <c r="C47" s="4">
+      <c r="F47" s="5">
         <v>29.2</v>
       </c>
-      <c r="D47" s="4">
+      <c r="G47" s="5">
         <v>31.93</v>
       </c>
-      <c r="E47" s="4">
+      <c r="H47" s="5">
         <v>29.05</v>
       </c>
-      <c r="F47" s="13">
+      <c r="I47" s="15">
         <v>7.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1">
-      <c r="A48" s="11">
+    <row r="48" spans="4:9" ht="15" thickBot="1">
+      <c r="D48" s="13">
         <v>44290</v>
       </c>
-      <c r="B48" s="5">
+      <c r="E48" s="6">
         <v>29.16</v>
       </c>
-      <c r="C48" s="4">
+      <c r="F48" s="5">
         <v>27.97</v>
       </c>
-      <c r="D48" s="4">
+      <c r="G48" s="5">
         <v>29.6</v>
       </c>
-      <c r="E48" s="4">
+      <c r="H48" s="5">
         <v>27.97</v>
       </c>
-      <c r="F48" s="13">
+      <c r="I48" s="15">
         <v>3.4799999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" thickBot="1">
-      <c r="A49" s="11">
+    <row r="49" spans="4:9" ht="15" thickBot="1">
+      <c r="D49" s="13">
         <v>44289</v>
-      </c>
-      <c r="B49" s="3">
-        <v>28.18</v>
-      </c>
-      <c r="C49" s="4">
-        <v>29.1</v>
-      </c>
-      <c r="D49" s="4">
-        <v>32.340000000000003</v>
       </c>
       <c r="E49" s="4">
         <v>28.18</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="5">
+        <v>29.1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="H49" s="5">
+        <v>28.18</v>
+      </c>
+      <c r="I49" s="14">
         <v>-2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" thickBot="1">
-      <c r="A50" s="11">
+    <row r="50" spans="4:9" ht="15" thickBot="1">
+      <c r="D50" s="13">
         <v>44288</v>
       </c>
-      <c r="B50" s="5">
+      <c r="E50" s="6">
         <v>29.04</v>
       </c>
-      <c r="C50" s="4">
+      <c r="F50" s="5">
         <v>28.29</v>
       </c>
-      <c r="D50" s="4">
+      <c r="G50" s="5">
         <v>29.25</v>
       </c>
-      <c r="E50" s="4">
+      <c r="H50" s="5">
         <v>28.04</v>
       </c>
-      <c r="F50" s="13">
+      <c r="I50" s="15">
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1">
-      <c r="A51" s="11">
+    <row r="51" spans="4:9" ht="15" thickBot="1">
+      <c r="D51" s="13">
         <v>44287</v>
       </c>
-      <c r="B51" s="3">
+      <c r="E51" s="4">
         <v>28.34</v>
       </c>
-      <c r="C51" s="4">
+      <c r="F51" s="5">
         <v>28.76</v>
       </c>
-      <c r="D51" s="4">
+      <c r="G51" s="5">
         <v>29.08</v>
       </c>
-      <c r="E51" s="4">
+      <c r="H51" s="5">
         <v>28.19</v>
       </c>
-      <c r="F51" s="12">
+      <c r="I51" s="14">
         <v>-1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1">
-      <c r="A52" s="11">
+    <row r="52" spans="4:9" ht="15" thickBot="1">
+      <c r="D52" s="13">
         <v>44286</v>
       </c>
-      <c r="B52" s="3">
+      <c r="E52" s="4">
         <v>28.74</v>
       </c>
-      <c r="C52" s="4">
+      <c r="F52" s="5">
         <v>29.63</v>
       </c>
-      <c r="D52" s="4">
+      <c r="G52" s="5">
         <v>29.79</v>
       </c>
-      <c r="E52" s="4">
+      <c r="H52" s="5">
         <v>27.52</v>
       </c>
-      <c r="F52" s="12">
+      <c r="I52" s="14">
         <v>-2.93E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" thickBot="1">
-      <c r="A53" s="11">
+    <row r="53" spans="4:9" ht="15" thickBot="1">
+      <c r="D53" s="13">
         <v>44285</v>
       </c>
-      <c r="B53" s="5">
+      <c r="E53" s="6">
         <v>29.61</v>
       </c>
-      <c r="C53" s="4">
+      <c r="F53" s="5">
         <v>29.54</v>
       </c>
-      <c r="D53" s="4">
+      <c r="G53" s="5">
         <v>30.24</v>
       </c>
-      <c r="E53" s="4">
+      <c r="H53" s="5">
         <v>29.18</v>
       </c>
-      <c r="F53" s="13">
+      <c r="I53" s="15">
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" thickBot="1">
-      <c r="A54" s="11">
+    <row r="54" spans="4:9" ht="15" thickBot="1">
+      <c r="D54" s="13">
         <v>44284</v>
       </c>
-      <c r="B54" s="5">
+      <c r="E54" s="6">
         <v>29.55</v>
       </c>
-      <c r="C54" s="4">
+      <c r="F54" s="5">
         <v>28.76</v>
       </c>
-      <c r="D54" s="4">
+      <c r="G54" s="5">
         <v>30.1</v>
       </c>
-      <c r="E54" s="4">
+      <c r="H54" s="5">
         <v>28.67</v>
       </c>
-      <c r="F54" s="13">
+      <c r="I54" s="15">
         <v>2.9399999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1">
-      <c r="A55" s="11">
+    <row r="55" spans="4:9" ht="15" thickBot="1">
+      <c r="D55" s="13">
         <v>44283</v>
       </c>
-      <c r="B55" s="5">
+      <c r="E55" s="6">
         <v>28.7</v>
       </c>
-      <c r="C55" s="4">
+      <c r="F55" s="5">
         <v>27.8</v>
       </c>
-      <c r="D55" s="4">
+      <c r="G55" s="5">
         <v>29.13</v>
       </c>
-      <c r="E55" s="4">
+      <c r="H55" s="5">
         <v>27.31</v>
       </c>
-      <c r="F55" s="13">
+      <c r="I55" s="15">
         <v>3.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1">
-      <c r="A56" s="11">
+    <row r="56" spans="4:9" ht="15" thickBot="1">
+      <c r="D56" s="13">
         <v>44282</v>
       </c>
-      <c r="B56" s="3">
+      <c r="E56" s="4">
         <v>27.63</v>
       </c>
-      <c r="C56" s="4">
+      <c r="F56" s="5">
         <v>28.31</v>
       </c>
-      <c r="D56" s="4">
+      <c r="G56" s="5">
         <v>28.31</v>
       </c>
-      <c r="E56" s="4">
+      <c r="H56" s="5">
         <v>27.09</v>
       </c>
-      <c r="F56" s="12">
+      <c r="I56" s="14">
         <v>-2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" thickBot="1">
-      <c r="A57" s="11">
+    <row r="57" spans="4:9" ht="15" thickBot="1">
+      <c r="D57" s="13">
         <v>44281</v>
       </c>
-      <c r="B57" s="5">
+      <c r="E57" s="6">
         <v>28.27</v>
       </c>
-      <c r="C57" s="4">
+      <c r="F57" s="5">
         <v>25.86</v>
       </c>
-      <c r="D57" s="4">
+      <c r="G57" s="5">
         <v>28.34</v>
       </c>
-      <c r="E57" s="4">
+      <c r="H57" s="5">
         <v>25.86</v>
       </c>
-      <c r="F57" s="13">
+      <c r="I57" s="15">
         <v>9.5299999999999996E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" thickBot="1">
-      <c r="A58" s="11">
+    <row r="58" spans="4:9" ht="15" thickBot="1">
+      <c r="D58" s="13">
         <v>44280</v>
       </c>
-      <c r="B58" s="3">
+      <c r="E58" s="4">
         <v>25.81</v>
       </c>
-      <c r="C58" s="4">
+      <c r="F58" s="5">
         <v>25.82</v>
       </c>
-      <c r="D58" s="4">
+      <c r="G58" s="5">
         <v>27.25</v>
       </c>
-      <c r="E58" s="4">
+      <c r="H58" s="5">
         <v>25.25</v>
       </c>
-      <c r="F58" s="12">
+      <c r="I58" s="14">
         <v>-3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1">
-      <c r="A59" s="11">
+    <row r="59" spans="4:9" ht="15" thickBot="1">
+      <c r="D59" s="13">
         <v>44279</v>
-      </c>
-      <c r="B59" s="3">
-        <v>25.9</v>
-      </c>
-      <c r="C59" s="4">
-        <v>28.44</v>
-      </c>
-      <c r="D59" s="4">
-        <v>30.11</v>
       </c>
       <c r="E59" s="4">
         <v>25.9</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="5">
+        <v>28.44</v>
+      </c>
+      <c r="G59" s="5">
+        <v>30.11</v>
+      </c>
+      <c r="H59" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="I59" s="14">
         <v>-9.06E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" thickBot="1">
-      <c r="A60" s="11">
+    <row r="60" spans="4:9" ht="15" thickBot="1">
+      <c r="D60" s="13">
         <v>44278</v>
-      </c>
-      <c r="B60" s="3">
-        <v>28.48</v>
-      </c>
-      <c r="C60" s="4">
-        <v>29.33</v>
-      </c>
-      <c r="D60" s="4">
-        <v>30.75</v>
       </c>
       <c r="E60" s="4">
         <v>28.48</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="5">
+        <v>29.33</v>
+      </c>
+      <c r="G60" s="5">
+        <v>30.75</v>
+      </c>
+      <c r="H60" s="5">
+        <v>28.48</v>
+      </c>
+      <c r="I60" s="14">
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" thickBot="1">
-      <c r="A61" s="11">
+    <row r="61" spans="4:9" ht="15" thickBot="1">
+      <c r="D61" s="13">
         <v>44277</v>
-      </c>
-      <c r="B61" s="3">
-        <v>29.18</v>
-      </c>
-      <c r="C61" s="4">
-        <v>32.83</v>
-      </c>
-      <c r="D61" s="4">
-        <v>33.08</v>
       </c>
       <c r="E61" s="4">
         <v>29.18</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="5">
+        <v>32.83</v>
+      </c>
+      <c r="G61" s="5">
+        <v>33.08</v>
+      </c>
+      <c r="H61" s="5">
+        <v>29.18</v>
+      </c>
+      <c r="I61" s="14">
         <v>-0.1105</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" thickBot="1">
-      <c r="A62" s="11">
+    <row r="62" spans="4:9" ht="15" thickBot="1">
+      <c r="D62" s="13">
         <v>44276</v>
       </c>
-      <c r="B62" s="3">
+      <c r="E62" s="4">
         <v>32.81</v>
       </c>
-      <c r="C62" s="4">
+      <c r="F62" s="5">
         <v>34.1</v>
       </c>
-      <c r="D62" s="4">
+      <c r="G62" s="5">
         <v>35.43</v>
       </c>
-      <c r="E62" s="4">
+      <c r="H62" s="5">
         <v>32.36</v>
       </c>
-      <c r="F62" s="12">
+      <c r="I62" s="14">
         <v>-4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1">
-      <c r="A63" s="11">
+    <row r="63" spans="4:9" ht="15" thickBot="1">
+      <c r="D63" s="13">
         <v>44275</v>
-      </c>
-      <c r="B63" s="3">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="C63" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="D63" s="4">
-        <v>38.39</v>
       </c>
       <c r="E63" s="4">
         <v>34.200000000000003</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="5">
+        <v>37.4</v>
+      </c>
+      <c r="G63" s="5">
+        <v>38.39</v>
+      </c>
+      <c r="H63" s="5">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I63" s="14">
         <v>-8.48E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" thickBot="1">
-      <c r="A64" s="11">
+    <row r="64" spans="4:9" ht="15" thickBot="1">
+      <c r="D64" s="13">
         <v>44274</v>
       </c>
-      <c r="B64" s="5">
+      <c r="E64" s="6">
         <v>37.369999999999997</v>
       </c>
-      <c r="C64" s="4">
+      <c r="F64" s="5">
         <v>33.22</v>
       </c>
-      <c r="D64" s="4">
+      <c r="G64" s="5">
         <v>37.76</v>
       </c>
-      <c r="E64" s="4">
+      <c r="H64" s="5">
         <v>33.22</v>
       </c>
-      <c r="F64" s="13">
+      <c r="I64" s="15">
         <v>0.1258</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" thickBot="1">
-      <c r="A65" s="11">
+    <row r="65" spans="4:9" ht="15" thickBot="1">
+      <c r="D65" s="13">
         <v>44273</v>
       </c>
-      <c r="B65" s="5">
+      <c r="E65" s="6">
         <v>33.19</v>
       </c>
-      <c r="C65" s="4">
+      <c r="F65" s="5">
         <v>32.85</v>
       </c>
-      <c r="D65" s="4">
+      <c r="G65" s="5">
         <v>34.65</v>
       </c>
-      <c r="E65" s="4">
+      <c r="H65" s="5">
         <v>32.4</v>
       </c>
-      <c r="F65" s="13">
+      <c r="I65" s="15">
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" thickBot="1">
-      <c r="A66" s="11">
+    <row r="66" spans="4:9" ht="15" thickBot="1">
+      <c r="D66" s="13">
         <v>44272</v>
       </c>
-      <c r="B66" s="3">
+      <c r="E66" s="4">
         <v>32.68</v>
       </c>
-      <c r="C66" s="4">
+      <c r="F66" s="5">
         <v>33</v>
       </c>
-      <c r="D66" s="4">
+      <c r="G66" s="5">
         <v>33</v>
       </c>
-      <c r="E66" s="4">
+      <c r="H66" s="5">
         <v>31.05</v>
       </c>
-      <c r="F66" s="12">
+      <c r="I66" s="14">
         <v>-1.12E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1">
-      <c r="A67" s="11">
+    <row r="67" spans="4:9" ht="15" thickBot="1">
+      <c r="D67" s="13">
         <v>44271</v>
       </c>
-      <c r="B67" s="5">
+      <c r="E67" s="6">
         <v>33.049999999999997</v>
       </c>
-      <c r="C67" s="4">
+      <c r="F67" s="5">
         <v>28.89</v>
       </c>
-      <c r="D67" s="4">
+      <c r="G67" s="5">
         <v>33.049999999999997</v>
       </c>
-      <c r="E67" s="4">
+      <c r="H67" s="5">
         <v>28.36</v>
       </c>
-      <c r="F67" s="13">
+      <c r="I67" s="15">
         <v>0.14249999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" thickBot="1">
-      <c r="A68" s="11">
+    <row r="68" spans="4:9" ht="15" thickBot="1">
+      <c r="D68" s="13">
         <v>44270</v>
       </c>
-      <c r="B68" s="3">
+      <c r="E68" s="4">
         <v>28.92</v>
       </c>
-      <c r="C68" s="4">
+      <c r="F68" s="5">
         <v>28.84</v>
       </c>
-      <c r="D68" s="4">
+      <c r="G68" s="5">
         <v>29.68</v>
       </c>
-      <c r="E68" s="4">
+      <c r="H68" s="5">
         <v>28.01</v>
       </c>
-      <c r="F68" s="12">
+      <c r="I68" s="14">
         <v>-4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" thickBot="1">
-      <c r="A69" s="11">
+    <row r="69" spans="4:9" ht="15" thickBot="1">
+      <c r="D69" s="13">
         <v>44269</v>
-      </c>
-      <c r="B69" s="3">
-        <v>29.04</v>
-      </c>
-      <c r="C69" s="4">
-        <v>30.97</v>
-      </c>
-      <c r="D69" s="4">
-        <v>31.32</v>
       </c>
       <c r="E69" s="4">
         <v>29.04</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="5">
+        <v>30.97</v>
+      </c>
+      <c r="G69" s="5">
+        <v>31.32</v>
+      </c>
+      <c r="H69" s="5">
+        <v>29.04</v>
+      </c>
+      <c r="I69" s="14">
         <v>-5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" thickBot="1">
-      <c r="A70" s="11">
+    <row r="70" spans="4:9" ht="15" thickBot="1">
+      <c r="D70" s="13">
         <v>44268</v>
       </c>
-      <c r="B70" s="5">
+      <c r="E70" s="6">
         <v>30.86</v>
       </c>
-      <c r="C70" s="4">
+      <c r="F70" s="5">
         <v>28</v>
       </c>
-      <c r="D70" s="4">
+      <c r="G70" s="5">
         <v>32.659999999999997</v>
       </c>
-      <c r="E70" s="4">
+      <c r="H70" s="5">
         <v>27.76</v>
       </c>
-      <c r="F70" s="13">
+      <c r="I70" s="15">
         <v>0.1028</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1">
-      <c r="A71" s="11">
+    <row r="71" spans="4:9" ht="15" thickBot="1">
+      <c r="D71" s="13">
         <v>44267</v>
       </c>
-      <c r="B71" s="3">
+      <c r="E71" s="4">
         <v>27.98</v>
       </c>
-      <c r="C71" s="4">
+      <c r="F71" s="5">
         <v>30.9</v>
       </c>
-      <c r="D71" s="4">
+      <c r="G71" s="5">
         <v>30.9</v>
       </c>
-      <c r="E71" s="4">
+      <c r="H71" s="5">
         <v>27.64</v>
       </c>
-      <c r="F71" s="12">
+      <c r="I71" s="14">
         <v>-9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1">
-      <c r="A72" s="11">
+    <row r="72" spans="4:9" ht="15" thickBot="1">
+      <c r="D72" s="13">
         <v>44266</v>
       </c>
-      <c r="B72" s="5">
+      <c r="E72" s="6">
         <v>30.79</v>
       </c>
-      <c r="C72" s="4">
+      <c r="F72" s="5">
         <v>29.68</v>
       </c>
-      <c r="D72" s="4">
+      <c r="G72" s="5">
         <v>32.619999999999997</v>
       </c>
-      <c r="E72" s="4">
+      <c r="H72" s="5">
         <v>29.33</v>
       </c>
-      <c r="F72" s="13">
+      <c r="I72" s="15">
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1">
-      <c r="A73" s="11">
+    <row r="73" spans="4:9" ht="15" thickBot="1">
+      <c r="D73" s="13">
         <v>44265</v>
-      </c>
-      <c r="B73" s="3">
-        <v>29.6</v>
-      </c>
-      <c r="C73" s="4">
-        <v>34.340000000000003</v>
-      </c>
-      <c r="D73" s="4">
-        <v>35</v>
       </c>
       <c r="E73" s="4">
         <v>29.6</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="5">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="G73" s="5">
+        <v>35</v>
+      </c>
+      <c r="H73" s="5">
+        <v>29.6</v>
+      </c>
+      <c r="I73" s="14">
         <v>-0.13830000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1">
-      <c r="A74" s="11">
+    <row r="74" spans="4:9" ht="15" thickBot="1">
+      <c r="D74" s="13">
         <v>44264</v>
       </c>
-      <c r="B74" s="5">
+      <c r="E74" s="6">
         <v>34.35</v>
       </c>
-      <c r="C74" s="4">
+      <c r="F74" s="5">
         <v>25.7</v>
       </c>
-      <c r="D74" s="4">
+      <c r="G74" s="5">
         <v>34.35</v>
       </c>
-      <c r="E74" s="4">
+      <c r="H74" s="5">
         <v>23.88</v>
       </c>
-      <c r="F74" s="13">
+      <c r="I74" s="15">
         <v>0.34179999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1">
-      <c r="A75" s="11">
+    <row r="75" spans="4:9" ht="15" thickBot="1">
+      <c r="D75" s="13">
         <v>44263</v>
       </c>
-      <c r="B75" s="3">
+      <c r="E75" s="4">
         <v>25.6</v>
       </c>
-      <c r="C75" s="4">
+      <c r="F75" s="5">
         <v>26.75</v>
       </c>
-      <c r="D75" s="4">
+      <c r="G75" s="5">
         <v>26.96</v>
       </c>
-      <c r="E75" s="4">
+      <c r="H75" s="5">
         <v>25.51</v>
       </c>
-      <c r="F75" s="12">
+      <c r="I75" s="14">
         <v>-4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1">
-      <c r="A76" s="11">
+    <row r="76" spans="4:9" ht="15" thickBot="1">
+      <c r="D76" s="13">
         <v>44262</v>
       </c>
-      <c r="B76" s="5">
+      <c r="E76" s="6">
         <v>26.74</v>
       </c>
-      <c r="C76" s="4">
+      <c r="F76" s="5">
         <v>24.98</v>
       </c>
-      <c r="D76" s="4">
+      <c r="G76" s="5">
         <v>27.86</v>
       </c>
-      <c r="E76" s="4">
+      <c r="H76" s="5">
         <v>24.98</v>
       </c>
-      <c r="F76" s="13">
+      <c r="I76" s="15">
         <v>7.3700000000000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" thickBot="1">
-      <c r="A77" s="11">
+    <row r="77" spans="4:9" ht="15" thickBot="1">
+      <c r="D77" s="13">
         <v>44261</v>
       </c>
-      <c r="B77" s="5">
+      <c r="E77" s="6">
         <v>24.9</v>
       </c>
-      <c r="C77" s="4">
+      <c r="F77" s="5">
         <v>24.3</v>
       </c>
-      <c r="D77" s="4">
+      <c r="G77" s="5">
         <v>25.12</v>
       </c>
-      <c r="E77" s="4">
+      <c r="H77" s="5">
         <v>24.14</v>
       </c>
-      <c r="F77" s="13">
+      <c r="I77" s="15">
         <v>2.29E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1">
-      <c r="A78" s="11">
+    <row r="78" spans="4:9" ht="15" thickBot="1">
+      <c r="D78" s="13">
         <v>44260</v>
       </c>
-      <c r="B78" s="3">
+      <c r="E78" s="4">
         <v>24.35</v>
       </c>
-      <c r="C78" s="4">
+      <c r="F78" s="5">
         <v>25.67</v>
       </c>
-      <c r="D78" s="4">
+      <c r="G78" s="5">
         <v>25.67</v>
       </c>
-      <c r="E78" s="4">
+      <c r="H78" s="5">
         <v>23.79</v>
       </c>
-      <c r="F78" s="12">
+      <c r="I78" s="14">
         <v>-5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1">
-      <c r="A79" s="11">
+    <row r="79" spans="4:9" ht="15" thickBot="1">
+      <c r="D79" s="13">
         <v>44259</v>
       </c>
-      <c r="B79" s="3">
+      <c r="E79" s="4">
         <v>25.78</v>
       </c>
-      <c r="C79" s="4">
+      <c r="F79" s="5">
         <v>26.88</v>
       </c>
-      <c r="D79" s="4">
+      <c r="G79" s="5">
         <v>28.16</v>
       </c>
-      <c r="E79" s="4">
+      <c r="H79" s="5">
         <v>25.2</v>
       </c>
-      <c r="F79" s="12">
+      <c r="I79" s="14">
         <v>-5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" thickBot="1">
-      <c r="A80" s="11">
+    <row r="80" spans="4:9" ht="15" thickBot="1">
+      <c r="D80" s="13">
         <v>44258</v>
       </c>
-      <c r="B80" s="5">
+      <c r="E80" s="6">
         <v>27.24</v>
       </c>
-      <c r="C80" s="4">
+      <c r="F80" s="5">
         <v>27.12</v>
       </c>
-      <c r="D80" s="4">
+      <c r="G80" s="5">
         <v>28.52</v>
       </c>
-      <c r="E80" s="4">
+      <c r="H80" s="5">
         <v>26.95</v>
       </c>
-      <c r="F80" s="13">
+      <c r="I80" s="15">
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" thickBot="1">
-      <c r="A81" s="11">
+    <row r="81" spans="4:9" ht="15" thickBot="1">
+      <c r="D81" s="13">
         <v>44257</v>
       </c>
-      <c r="B81" s="3">
+      <c r="E81" s="4">
         <v>27.08</v>
       </c>
-      <c r="C81" s="4">
+      <c r="F81" s="5">
         <v>27.51</v>
       </c>
-      <c r="D81" s="4">
+      <c r="G81" s="5">
         <v>29.67</v>
       </c>
-      <c r="E81" s="4">
+      <c r="H81" s="5">
         <v>26.16</v>
       </c>
-      <c r="F81" s="12">
+      <c r="I81" s="14">
         <v>-1.35E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" thickBot="1">
-      <c r="A82" s="14">
+    <row r="82" spans="4:9" ht="15" thickBot="1">
+      <c r="D82" s="16">
         <v>44256</v>
       </c>
-      <c r="B82" s="6">
+      <c r="E82" s="7">
         <v>27.45</v>
       </c>
-      <c r="C82" s="7">
+      <c r="F82" s="8">
         <v>24.07</v>
       </c>
-      <c r="D82" s="7">
+      <c r="G82" s="8">
         <v>27.45</v>
       </c>
-      <c r="E82" s="7">
+      <c r="H82" s="8">
         <v>24.07</v>
       </c>
-      <c r="F82" s="15">
+      <c r="I82" s="17">
         <v>0.14680000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" thickBot="1">
-      <c r="A83" s="11">
+    <row r="83" spans="4:9" ht="15" thickBot="1">
+      <c r="D83" s="13">
         <v>44255</v>
       </c>
-      <c r="B83" s="3">
+      <c r="E83" s="4">
         <v>23.94</v>
       </c>
-      <c r="C83" s="4">
+      <c r="F83" s="5">
         <v>25.63</v>
       </c>
-      <c r="D83" s="4">
+      <c r="G83" s="5">
         <v>25.84</v>
       </c>
-      <c r="E83" s="4">
+      <c r="H83" s="5">
         <v>22.78</v>
       </c>
-      <c r="F83" s="12">
+      <c r="I83" s="14">
         <v>-7.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" thickBot="1">
-      <c r="A84" s="11">
+    <row r="84" spans="4:9" ht="15" thickBot="1">
+      <c r="D84" s="13">
         <v>44254</v>
-      </c>
-      <c r="B84" s="3">
-        <v>25.76</v>
-      </c>
-      <c r="C84" s="4">
-        <v>26.11</v>
-      </c>
-      <c r="D84" s="4">
-        <v>26.98</v>
       </c>
       <c r="E84" s="4">
         <v>25.76</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="5">
+        <v>26.11</v>
+      </c>
+      <c r="G84" s="5">
+        <v>26.98</v>
+      </c>
+      <c r="H84" s="5">
+        <v>25.76</v>
+      </c>
+      <c r="I84" s="14">
         <v>-6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1">
-      <c r="A85" s="11">
+    <row r="85" spans="4:9" ht="15" thickBot="1">
+      <c r="D85" s="13">
         <v>44253</v>
       </c>
-      <c r="B85" s="3">
+      <c r="E85" s="4">
         <v>25.94</v>
       </c>
-      <c r="C85" s="4">
+      <c r="F85" s="5">
         <v>26.74</v>
       </c>
-      <c r="D85" s="4">
+      <c r="G85" s="5">
         <v>27.48</v>
       </c>
-      <c r="E85" s="4">
+      <c r="H85" s="5">
         <v>25.2</v>
       </c>
-      <c r="F85" s="12">
+      <c r="I85" s="14">
         <v>-2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1">
-      <c r="A86" s="11">
+    <row r="86" spans="4:9">
+      <c r="D86" s="13">
         <v>44252</v>
-      </c>
-      <c r="B86" s="3">
-        <v>26.58</v>
-      </c>
-      <c r="C86" s="4">
-        <v>29.71</v>
-      </c>
-      <c r="D86" s="4">
-        <v>30.44</v>
       </c>
       <c r="E86" s="4">
         <v>26.58</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="5">
+        <v>29.71</v>
+      </c>
+      <c r="G86" s="5">
+        <v>30.44</v>
+      </c>
+      <c r="H86" s="5">
+        <v>26.58</v>
+      </c>
+      <c r="I86" s="14">
         <v>-0.11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickBot="1">
-      <c r="A87" s="11">
-        <v>44251</v>
-      </c>
-      <c r="B87" s="5">
-        <v>29.86</v>
-      </c>
-      <c r="C87" s="4">
-        <v>27.59</v>
-      </c>
-      <c r="D87" s="4">
-        <v>31.3</v>
-      </c>
-      <c r="E87" s="4">
-        <v>26.94</v>
-      </c>
-      <c r="F87" s="13">
-        <v>8.43E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="11">
-        <v>44250</v>
-      </c>
-      <c r="B88" s="3">
-        <v>27.54</v>
-      </c>
-      <c r="C88" s="4">
-        <v>32.22</v>
-      </c>
-      <c r="D88" s="4">
-        <v>32.22</v>
-      </c>
-      <c r="E88" s="4">
-        <v>25.12</v>
-      </c>
-      <c r="F88" s="12">
-        <v>-0.1454</v>
       </c>
     </row>
   </sheetData>
